--- a/memo.xlsx
+++ b/memo.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="メモ" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="初期検討_160319" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>データベースはレンタルサーバーで使用可能なMySql、postgleのどちらかを使用する。</t>
     <phoneticPr fontId="2"/>
@@ -78,10 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラで撮影した画像を日付別、被写体の分類などで管理できるシステムを作成する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>O/Rマッピングの機能には、MyBatis(ibatis)を使う</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -134,6 +133,430 @@
   </si>
   <si>
     <t>【サイトマップ】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム作成者の技術力向上</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラで撮影した画像を日付別、被写体の分類、場所などで管理できるシステムを作成する。</t>
+    <rPh sb="22" eb="24">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【サイトマップ_160319】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロント、管理画面を作る</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来ること</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイトにあげる写真の管理</t>
+    <rPh sb="7" eb="9">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真のアップロード</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真の検索</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→管理での写真の情報を登録し、それに紐付けた検索をできるようにする。</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　画像のカテゴリー、日付、プライベートフラグ</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイトマップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【フロント】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各画像の詳細</t>
+    <rPh sb="0" eb="3">
+      <t>カクガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お気に入りの画像がカルーセルで表示される。検索画面へのリンク。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面。上部に検索条件、下部に検索された画像を一覧で表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各画像の詳細ページ、画像と管理画面で設定した情報を表示。</t>
+    <rPh sb="0" eb="3">
+      <t>カクガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【管理】</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像管理</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像アップロード</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン用のID/PWを入力する画面、ログイン成功後トップページ。</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各管理ページへのリンクを表示。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の管理。検索画面と画像の詳細設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像をアップロード。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの管理。検索画面とユーザの詳細設定画面</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考サイトURL</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.mecsumai.com/renovation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→ユーザ管理でどんな設定ができる。</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→画像管理でどんな設定ができる。</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -182,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,13 +618,116 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,13 +755,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,8 +1221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9345706" y="3204882"/>
-          <a:ext cx="1994647" cy="885265"/>
+          <a:off x="9304084" y="3853223"/>
+          <a:ext cx="1985042" cy="897270"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst/>
@@ -682,14 +1260,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>◆ユーザー名</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -698,7 +1276,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>irihoshi</a:t>
@@ -709,14 +1287,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>◆パスワード</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -725,7 +1303,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja" sz="1100" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -735,7 +1313,7 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1120,6 +1698,286 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6667500"/>
+          <a:ext cx="2057400" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>ホームページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="7357222"/>
+          <a:ext cx="2743200" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172201" y="6667500"/>
+          <a:ext cx="2057399" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>メニュー選択画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3415553" y="6878731"/>
+          <a:ext cx="1396252" cy="289672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246117</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172201" y="1866901"/>
+          <a:ext cx="1617716" cy="1114424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1438,9 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1454,22 +2310,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
@@ -1484,12 +2345,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -1509,7 +2370,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
@@ -1549,7 +2410,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
@@ -1564,7 +2425,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1578,9 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1589,32 +2448,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1631,13 +2490,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B69" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/memo.xlsx
+++ b/memo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>データベースはレンタルサーバーで使用可能なMySql、postgleのどちらかを使用する。</t>
     <phoneticPr fontId="2"/>
@@ -469,34 +469,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画像の管理。検索画面と画像の詳細設定画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画像をアップロード。</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -504,28 +476,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの管理。検索画面とユーザの詳細設定画面</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>参考サイトURL</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -557,6 +507,89 @@
     <rPh sb="9" eb="11">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの管理。検索画面と一覧画面</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの追加および修正を行うページ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→設定できる項目はユーザ名、パスワード、画像とか、入力チェック行う</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の管理。検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の詳細設定画面。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像詳細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前、日付、場所、分類、コメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像情報</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入澤担当</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星担当</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリマスタ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -625,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -730,6 +763,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +823,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1765,13 +1817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
@@ -1814,13 +1866,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1871,13 +1923,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>672353</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
@@ -1938,13 +1990,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>246117</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -2490,16 +2542,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2661,12 +2715,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
@@ -2677,151 +2731,222 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B57" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="9" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="10" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="8" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="10"/>
-      <c r="C63" s="11" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="8" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D65" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="14"/>
+      <c r="E66" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
-        <v>66</v>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B69" r:id="rId1"/>
+    <hyperlink ref="B72" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>

--- a/memo.xlsx
+++ b/memo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>データベースはレンタルサーバーで使用可能なMySql、postgleのどちらかを使用する。</t>
     <phoneticPr fontId="2"/>
@@ -510,10 +510,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザ設定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザの管理。検索画面と一覧画面</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
@@ -590,6 +586,144 @@
   </si>
   <si>
     <t>カテゴリマスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ詳細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ詳細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループの管理。検索画面と一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループの追加および修正を行うページ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループマスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADMIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FRONT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>００</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０４</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像アップロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０５</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０６</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像詳細</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -785,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +963,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1990,16 +2127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1828801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>246117</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3446517</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2022,8 +2159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172201" y="1866901"/>
-          <a:ext cx="1617716" cy="1114424"/>
+          <a:off x="6029326" y="638176"/>
+          <a:ext cx="1617716" cy="1057274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2542,9 +2679,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2846,9 +2985,11 @@
       <c r="D65" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="F65" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>66</v>
@@ -2859,13 +3000,13 @@
       <c r="C66" s="11"/>
       <c r="D66" s="14"/>
       <c r="E66" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -2885,9 +3026,11 @@
       <c r="D68" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F68" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>65</v>
@@ -2898,55 +3041,191 @@
       <c r="C69" s="11"/>
       <c r="D69" s="14"/>
       <c r="E69" s="12" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>70</v>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C74" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C75" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C76" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C77" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C78" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C79" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C82" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C83" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B72" s="4" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B95" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
-        <v>80</v>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B72" r:id="rId1"/>
+    <hyperlink ref="B95" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>
